--- a/shakaishisosha-original-gamebook/checklist.xlsx
+++ b/shakaishisosha-original-gamebook/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shakaishisosha-original-gamebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E9AEA9A-3E70-D94F-94B1-99442077BC2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A26CF7-A21D-0840-B9D9-23EA01620F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1575E3FE-7869-BC4D-BCA5-A08DE751045D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>year</t>
   </si>
@@ -87,14 +87,28 @@
   </si>
   <si>
     <t>Shakaishisosha</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>gamebook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905499A9-566F-0D47-8C66-1B3565F04F10}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,24 +468,27 @@
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1988</v>
       </c>
@@ -486,8 +504,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1990</v>
       </c>
@@ -503,8 +524,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1991</v>
       </c>
@@ -520,8 +544,11 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1991</v>
       </c>
@@ -536,6 +563,9 @@
       </c>
       <c r="E5" t="s">
         <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
